--- a/extraExpenses.xlsx
+++ b/extraExpenses.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myEco101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E64A1-86B0-4C6E-AF09-697264DFCF02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E177B-E4FE-4646-8678-D9DFE62019BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="August" sheetId="1" r:id="rId1"/>
+    <sheet name="AUGUST" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/extraExpenses.xlsx
+++ b/extraExpenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myEco101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E177B-E4FE-4646-8678-D9DFE62019BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312F5EC-E2E9-4C90-8375-977DE5E9AD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +394,7 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>100</v>

--- a/extraExpenses.xlsx
+++ b/extraExpenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myEco101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1312F5EC-E2E9-4C90-8375-977DE5E9AD29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A760C87-74BC-4BCD-82F0-90B0554A1DC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>food</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>sth</t>
+  </si>
+  <si>
+    <t>Alper</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -369,7 +372,7 @@
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,8 +388,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200</v>
       </c>
@@ -401,6 +407,9 @@
       </c>
       <c r="E2">
         <v>50</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
